--- a/TestEstandar.xlsx
+++ b/TestEstandar.xlsx
@@ -486,10 +486,10 @@
         <v>29.0926</v>
       </c>
       <c r="E2" t="n">
-        <v>828</v>
+        <v>853</v>
       </c>
       <c r="F2" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="G2" t="n">
         <v>613</v>
@@ -514,10 +514,10 @@
         <v>15.1861</v>
       </c>
       <c r="E3" t="n">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="F3" t="n">
-        <v>-20</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
         <v>323</v>
@@ -542,10 +542,10 @@
         <v>15.208</v>
       </c>
       <c r="E4" t="n">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="F4" t="n">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="G4" t="n">
         <v>327</v>
@@ -570,10 +570,10 @@
         <v>28.0871</v>
       </c>
       <c r="E5" t="n">
-        <v>652</v>
+        <v>677</v>
       </c>
       <c r="F5" t="n">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="G5" t="n">
         <v>593</v>

--- a/TestEstandar.xlsx
+++ b/TestEstandar.xlsx
@@ -486,10 +486,10 @@
         <v>29.0926</v>
       </c>
       <c r="E2" t="n">
-        <v>853</v>
+        <v>437</v>
       </c>
       <c r="F2" t="n">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="G2" t="n">
         <v>613</v>
@@ -514,10 +514,10 @@
         <v>15.1861</v>
       </c>
       <c r="E3" t="n">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>193</v>
       </c>
       <c r="G3" t="n">
         <v>323</v>
@@ -542,10 +542,10 @@
         <v>15.208</v>
       </c>
       <c r="E4" t="n">
-        <v>307</v>
+        <v>-468</v>
       </c>
       <c r="F4" t="n">
-        <v>321</v>
+        <v>-175</v>
       </c>
       <c r="G4" t="n">
         <v>327</v>
@@ -570,10 +570,10 @@
         <v>28.0871</v>
       </c>
       <c r="E5" t="n">
-        <v>677</v>
+        <v>-556</v>
       </c>
       <c r="F5" t="n">
-        <v>506</v>
+        <v>-211</v>
       </c>
       <c r="G5" t="n">
         <v>593</v>

--- a/TestEstandar.xlsx
+++ b/TestEstandar.xlsx
@@ -486,10 +486,10 @@
         <v>29.0926</v>
       </c>
       <c r="E2" t="n">
-        <v>437</v>
+        <v>828</v>
       </c>
       <c r="F2" t="n">
-        <v>191</v>
+        <v>-184</v>
       </c>
       <c r="G2" t="n">
         <v>613</v>
@@ -514,10 +514,10 @@
         <v>15.1861</v>
       </c>
       <c r="E3" t="n">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="F3" t="n">
-        <v>193</v>
+        <v>-186</v>
       </c>
       <c r="G3" t="n">
         <v>323</v>
@@ -542,10 +542,10 @@
         <v>15.208</v>
       </c>
       <c r="E4" t="n">
-        <v>-468</v>
+        <v>282</v>
       </c>
       <c r="F4" t="n">
-        <v>-175</v>
+        <v>182</v>
       </c>
       <c r="G4" t="n">
         <v>327</v>
@@ -570,10 +570,10 @@
         <v>28.0871</v>
       </c>
       <c r="E5" t="n">
-        <v>-556</v>
+        <v>652</v>
       </c>
       <c r="F5" t="n">
-        <v>-211</v>
+        <v>217</v>
       </c>
       <c r="G5" t="n">
         <v>593</v>

--- a/TestEstandar.xlsx
+++ b/TestEstandar.xlsx
@@ -486,10 +486,10 @@
         <v>29.0926</v>
       </c>
       <c r="E2" t="n">
-        <v>828</v>
+        <v>806.5705</v>
       </c>
       <c r="F2" t="n">
-        <v>-184</v>
+        <v>318.68575</v>
       </c>
       <c r="G2" t="n">
         <v>613</v>
@@ -514,10 +514,10 @@
         <v>15.1861</v>
       </c>
       <c r="E3" t="n">
-        <v>410</v>
+        <v>388.5705</v>
       </c>
       <c r="F3" t="n">
-        <v>-186</v>
+        <v>489.68575</v>
       </c>
       <c r="G3" t="n">
         <v>323</v>
@@ -542,10 +542,10 @@
         <v>15.208</v>
       </c>
       <c r="E4" t="n">
-        <v>282</v>
+        <v>260.5705</v>
       </c>
       <c r="F4" t="n">
-        <v>182</v>
+        <v>173.68575</v>
       </c>
       <c r="G4" t="n">
         <v>327</v>
@@ -570,10 +570,10 @@
         <v>28.0871</v>
       </c>
       <c r="E5" t="n">
-        <v>652</v>
+        <v>630.5705</v>
       </c>
       <c r="F5" t="n">
-        <v>217</v>
+        <v>11.31425000000002</v>
       </c>
       <c r="G5" t="n">
         <v>593</v>

--- a/TestEstandar.xlsx
+++ b/TestEstandar.xlsx
@@ -486,10 +486,10 @@
         <v>29.0926</v>
       </c>
       <c r="E2" t="n">
-        <v>806.5705</v>
+        <v>792.927</v>
       </c>
       <c r="F2" t="n">
-        <v>318.68575</v>
+        <v>-70.439016520271</v>
       </c>
       <c r="G2" t="n">
         <v>613</v>
@@ -514,10 +514,10 @@
         <v>15.1861</v>
       </c>
       <c r="E3" t="n">
-        <v>388.5705</v>
+        <v>383.065</v>
       </c>
       <c r="F3" t="n">
-        <v>489.68575</v>
+        <v>1018.382359662934</v>
       </c>
       <c r="G3" t="n">
         <v>323</v>
@@ -542,10 +542,10 @@
         <v>15.208</v>
       </c>
       <c r="E4" t="n">
-        <v>260.5705</v>
+        <v>268.239</v>
       </c>
       <c r="F4" t="n">
-        <v>173.68575</v>
+        <v>16226.40414747018</v>
       </c>
       <c r="G4" t="n">
         <v>327</v>
@@ -570,10 +570,10 @@
         <v>28.0871</v>
       </c>
       <c r="E5" t="n">
-        <v>630.5705</v>
+        <v>642.051</v>
       </c>
       <c r="F5" t="n">
-        <v>11.31425000000002</v>
+        <v>-82696.38293800216</v>
       </c>
       <c r="G5" t="n">
         <v>593</v>

--- a/TestEstandar.xlsx
+++ b/TestEstandar.xlsx
@@ -489,7 +489,7 @@
         <v>792.927</v>
       </c>
       <c r="F2" t="n">
-        <v>-70.439016520271</v>
+        <v>318.68575</v>
       </c>
       <c r="G2" t="n">
         <v>613</v>
@@ -517,7 +517,7 @@
         <v>383.065</v>
       </c>
       <c r="F3" t="n">
-        <v>1018.382359662934</v>
+        <v>489.68575</v>
       </c>
       <c r="G3" t="n">
         <v>323</v>
@@ -545,7 +545,7 @@
         <v>268.239</v>
       </c>
       <c r="F4" t="n">
-        <v>16226.40414747018</v>
+        <v>173.68575</v>
       </c>
       <c r="G4" t="n">
         <v>327</v>
@@ -573,7 +573,7 @@
         <v>642.051</v>
       </c>
       <c r="F5" t="n">
-        <v>-82696.38293800216</v>
+        <v>11.31425000000002</v>
       </c>
       <c r="G5" t="n">
         <v>593</v>

--- a/TestEstandar.xlsx
+++ b/TestEstandar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,26 +476,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alpheratz</t>
+          <t>Vega</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.3443</v>
+        <v>279.2367</v>
       </c>
       <c r="D2" t="n">
-        <v>29.0926</v>
+        <v>38.7908</v>
       </c>
       <c r="E2" t="n">
-        <v>792.927</v>
+        <v>270.061</v>
       </c>
       <c r="F2" t="n">
-        <v>318.68575</v>
+        <v>801.701</v>
       </c>
       <c r="G2" t="n">
-        <v>613</v>
+        <v>330</v>
       </c>
       <c r="H2" t="n">
-        <v>334</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3">
@@ -504,26 +504,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Algenib</t>
+          <t>Eltanin</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.5525</v>
+        <v>269.1516</v>
       </c>
       <c r="D3" t="n">
-        <v>15.1861</v>
+        <v>51.4942</v>
       </c>
       <c r="E3" t="n">
-        <v>383.065</v>
+        <v>133.625</v>
       </c>
       <c r="F3" t="n">
-        <v>489.68575</v>
+        <v>538.008</v>
       </c>
       <c r="G3" t="n">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H3" t="n">
-        <v>374</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4">
@@ -532,26 +532,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Markab</t>
+          <t>Rastaban</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>346.4246</v>
+        <v>262.6072</v>
       </c>
       <c r="D4" t="n">
-        <v>15.208</v>
+        <v>52.3068</v>
       </c>
       <c r="E4" t="n">
-        <v>268.239</v>
+        <v>85.161</v>
       </c>
       <c r="F4" t="n">
-        <v>173.68575</v>
+        <v>363.4</v>
       </c>
       <c r="G4" t="n">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="H4" t="n">
-        <v>37</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5">
@@ -560,26 +560,670 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Funda</t>
+          <t>Grumium</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>345.9486</v>
+        <v>268.3838</v>
       </c>
       <c r="D5" t="n">
-        <v>28.0871</v>
+        <v>56.8728</v>
       </c>
       <c r="E5" t="n">
-        <v>642.051</v>
+        <v>123.615</v>
       </c>
       <c r="F5" t="n">
-        <v>11.31425000000002</v>
+        <v>460.769</v>
       </c>
       <c r="G5" t="n">
-        <v>593</v>
+        <v>325</v>
       </c>
       <c r="H5" t="n">
-        <v>43</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>n Her</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>258.7605</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.8141</v>
+      </c>
+      <c r="E6" t="n">
+        <v>39.363</v>
+      </c>
+      <c r="F6" t="n">
+        <v>752.178</v>
+      </c>
+      <c r="G6" t="n">
+        <v>273</v>
+      </c>
+      <c r="H6" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>44 Her</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>250.7221</v>
+      </c>
+      <c r="D7" t="n">
+        <v>38.9265</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-30.62</v>
+      </c>
+      <c r="F7" t="n">
+        <v>668</v>
+      </c>
+      <c r="G7" t="n">
+        <v>258</v>
+      </c>
+      <c r="H7" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rutilicus</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>250.3177</v>
+      </c>
+      <c r="D8" t="n">
+        <v>31.6094</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-58.607</v>
+      </c>
+      <c r="F8" t="n">
+        <v>383.188</v>
+      </c>
+      <c r="G8" t="n">
+        <v>234</v>
+      </c>
+      <c r="H8" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fawaris</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>296.2472</v>
+      </c>
+      <c r="D9" t="n">
+        <v>45.1359</v>
+      </c>
+      <c r="E9" t="n">
+        <v>419.422</v>
+      </c>
+      <c r="F9" t="n">
+        <v>377.673</v>
+      </c>
+      <c r="G9" t="n">
+        <v>374</v>
+      </c>
+      <c r="H9" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sadr</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>28.6541</v>
+      </c>
+      <c r="D10" t="n">
+        <v>65.3695</v>
+      </c>
+      <c r="E10" t="n">
+        <v>464.945</v>
+      </c>
+      <c r="F10" t="n">
+        <v>298.5170000046492</v>
+      </c>
+      <c r="G10" t="n">
+        <v>399</v>
+      </c>
+      <c r="H10" t="n">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Aljanah</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>311.5598</v>
+      </c>
+      <c r="D11" t="n">
+        <v>33.9764</v>
+      </c>
+      <c r="E11" t="n">
+        <v>842.213</v>
+      </c>
+      <c r="F11" t="n">
+        <v>415.3849999999984</v>
+      </c>
+      <c r="G11" t="n">
+        <v>423</v>
+      </c>
+      <c r="H11" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fawaris III</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>318.2386</v>
+      </c>
+      <c r="D12" t="n">
+        <v>30.2301</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1303.984</v>
+      </c>
+      <c r="F12" t="n">
+        <v>444.6469999999972</v>
+      </c>
+      <c r="G12" t="n">
+        <v>451</v>
+      </c>
+      <c r="H12" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Deneb</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>310.3629</v>
+      </c>
+      <c r="D13" t="n">
+        <v>45.2846</v>
+      </c>
+      <c r="E13" t="n">
+        <v>570.297</v>
+      </c>
+      <c r="F13" t="n">
+        <v>590.414</v>
+      </c>
+      <c r="G13" t="n">
+        <v>404</v>
+      </c>
+      <c r="H13" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Alderamin</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>19.655</v>
+      </c>
+      <c r="D14" t="n">
+        <v>62.5888</v>
+      </c>
+      <c r="E14" t="n">
+        <v>543.25</v>
+      </c>
+      <c r="F14" t="n">
+        <v>283.0429999884218</v>
+      </c>
+      <c r="G14" t="n">
+        <v>400</v>
+      </c>
+      <c r="H14" t="n">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Kabalfird</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>311.3379</v>
+      </c>
+      <c r="D15" t="n">
+        <v>61.847</v>
+      </c>
+      <c r="E15" t="n">
+        <v>393.458</v>
+      </c>
+      <c r="F15" t="n">
+        <v>290.1099999999933</v>
+      </c>
+      <c r="G15" t="n">
+        <v>389</v>
+      </c>
+      <c r="H15" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alfirk</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>322.0177</v>
+      </c>
+      <c r="D16" t="n">
+        <v>70.5643</v>
+      </c>
+      <c r="E16" t="n">
+        <v>329.692</v>
+      </c>
+      <c r="F16" t="n">
+        <v>240.4639999997453</v>
+      </c>
+      <c r="G16" t="n">
+        <v>390</v>
+      </c>
+      <c r="H16" t="n">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>I cep</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>342.43</v>
+      </c>
+      <c r="D17" t="n">
+        <v>66.20269999999999</v>
+      </c>
+      <c r="E17" t="n">
+        <v>458.538</v>
+      </c>
+      <c r="F17" t="n">
+        <v>82.95100000197999</v>
+      </c>
+      <c r="G17" t="n">
+        <v>416</v>
+      </c>
+      <c r="H17" t="n">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Errai</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>354.8652</v>
+      </c>
+      <c r="D18" t="n">
+        <v>77.6336</v>
+      </c>
+      <c r="E18" t="n">
+        <v>276.336</v>
+      </c>
+      <c r="F18" t="n">
+        <v>37.64199999865377</v>
+      </c>
+      <c r="G18" t="n">
+        <v>393</v>
+      </c>
+      <c r="H18" t="n">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Caph</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2.3065</v>
+      </c>
+      <c r="D19" t="n">
+        <v>59.1549</v>
+      </c>
+      <c r="E19" t="n">
+        <v>659.501</v>
+      </c>
+      <c r="F19" t="n">
+        <v>155.124999968335</v>
+      </c>
+      <c r="G19" t="n">
+        <v>453</v>
+      </c>
+      <c r="H19" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Shedar</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>10.1366</v>
+      </c>
+      <c r="D20" t="n">
+        <v>56.5376</v>
+      </c>
+      <c r="E20" t="n">
+        <v>761.277</v>
+      </c>
+      <c r="F20" t="n">
+        <v>18.7949999384582</v>
+      </c>
+      <c r="G20" t="n">
+        <v>470</v>
+      </c>
+      <c r="H20" t="n">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Navi</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>14.1876</v>
+      </c>
+      <c r="D21" t="n">
+        <v>60.7167</v>
+      </c>
+      <c r="E21" t="n">
+        <v>617.605</v>
+      </c>
+      <c r="F21" t="n">
+        <v>265.4269999971038</v>
+      </c>
+      <c r="G21" t="n">
+        <v>456</v>
+      </c>
+      <c r="H21" t="n">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Ksora</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>21.4649</v>
+      </c>
+      <c r="D22" t="n">
+        <v>60.2365</v>
+      </c>
+      <c r="E22" t="n">
+        <v>618.71</v>
+      </c>
+      <c r="F22" t="n">
+        <v>352.4930000029271</v>
+      </c>
+      <c r="G22" t="n">
+        <v>462</v>
+      </c>
+      <c r="H22" t="n">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Alkaid</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>206.875</v>
+      </c>
+      <c r="D23" t="n">
+        <v>49.3163</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-237.986</v>
+      </c>
+      <c r="F23" t="n">
+        <v>329.096000000004</v>
+      </c>
+      <c r="G23" t="n">
+        <v>221</v>
+      </c>
+      <c r="H23" t="n">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Mizar</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>200.9745</v>
+      </c>
+      <c r="D24" t="n">
+        <v>54.9283</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-211.191</v>
+      </c>
+      <c r="F24" t="n">
+        <v>303.3180000000124</v>
+      </c>
+      <c r="G24" t="n">
+        <v>235</v>
+      </c>
+      <c r="H24" t="n">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Alioth</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>193.4996</v>
+      </c>
+      <c r="D25" t="n">
+        <v>55.9624</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-224.021</v>
+      </c>
+      <c r="F25" t="n">
+        <v>286.6230000000771</v>
+      </c>
+      <c r="G25" t="n">
+        <v>235</v>
+      </c>
+      <c r="H25" t="n">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Phecda</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>178.45</v>
+      </c>
+      <c r="D26" t="n">
+        <v>53.6961</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-277.667</v>
+      </c>
+      <c r="F26" t="n">
+        <v>253.7279999999067</v>
+      </c>
+      <c r="G26" t="n">
+        <v>225</v>
+      </c>
+      <c r="H26" t="n">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Merak</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>165.45</v>
+      </c>
+      <c r="D27" t="n">
+        <v>56.3827</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-258.935</v>
+      </c>
+      <c r="F27" t="n">
+        <v>75.64800000208879</v>
+      </c>
+      <c r="G27" t="n">
+        <v>246</v>
+      </c>
+      <c r="H27" t="n">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Dubhe</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>165.9199</v>
+      </c>
+      <c r="D28" t="n">
+        <v>61.752</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-200.037</v>
+      </c>
+      <c r="F28" t="n">
+        <v>78.3680000011898</v>
+      </c>
+      <c r="G28" t="n">
+        <v>270</v>
+      </c>
+      <c r="H28" t="n">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
